--- a/src/test/resources/data_files/test_default_security_page.xlsx
+++ b/src/test/resources/data_files/test_default_security_page.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="67">
   <si>
     <t>testName</t>
   </si>
@@ -64,48 +64,6 @@
   </si>
   <si>
     <t>Якщо ви вважаєте, що ця поштова скринька вам більше не знадобиться, ви можете її видалити.</t>
-  </si>
-  <si>
-    <t>titleOpenSession</t>
-  </si>
-  <si>
-    <t>descriptionOpenSession</t>
-  </si>
-  <si>
-    <t>titleSecurityLog</t>
-  </si>
-  <si>
-    <t>descriptionSecurityLog</t>
-  </si>
-  <si>
-    <t>titlePasswordChange</t>
-  </si>
-  <si>
-    <t>descriptionPasswordChange</t>
-  </si>
-  <si>
-    <t>titleRecoveryContacts</t>
-  </si>
-  <si>
-    <t>descriptionPersonalInfo</t>
-  </si>
-  <si>
-    <t>titlePersonalInfo</t>
-  </si>
-  <si>
-    <t>descriptioRecoveryContacts</t>
-  </si>
-  <si>
-    <t>titleAppPasswords</t>
-  </si>
-  <si>
-    <t>descriptionAppPasswords</t>
-  </si>
-  <si>
-    <t>titleAccountDeletion</t>
-  </si>
-  <si>
-    <t>descriptionAccountDeletion</t>
   </si>
   <si>
     <t>testDefaultSecPage</t>
@@ -200,7 +158,67 @@
     <t xml:space="preserve">If you consider that you don’t need your mailbox anymore, you can delete your account. </t>
   </si>
   <si>
-    <t>testlocalizationDefSecPage</t>
+    <t>descriptionSecurityPage</t>
+  </si>
+  <si>
+    <t>.app section:nth-child(2) .app-tab__title</t>
+  </si>
+  <si>
+    <t>.app section:nth-child(3) .app-tab__title</t>
+  </si>
+  <si>
+    <t>.app section:nth-child(4) .app-tab__title</t>
+  </si>
+  <si>
+    <t>.app section:nth-child(5) .app-tab__title</t>
+  </si>
+  <si>
+    <t>.app section:nth-child(6) .app-tab__title</t>
+  </si>
+  <si>
+    <t>.app section:nth-child(7) .app-tab__title</t>
+  </si>
+  <si>
+    <t>.app section:nth-child(8) .app-tab__title</t>
+  </si>
+  <si>
+    <t>.app section:nth-child(2) .app-tab__desc</t>
+  </si>
+  <si>
+    <t>.app section:nth-child(3) .app-tab__desc</t>
+  </si>
+  <si>
+    <t>.app section:nth-child(4) .app-tab__desc</t>
+  </si>
+  <si>
+    <t>.app section:nth-child(5) .app-tab__desc</t>
+  </si>
+  <si>
+    <t>.app section:nth-child(6) .app-tab__desc</t>
+  </si>
+  <si>
+    <t>.app section:nth-child(7) .app-tab__desc</t>
+  </si>
+  <si>
+    <t>.app section:nth-child(8) .app-tab__desc</t>
+  </si>
+  <si>
+    <t>titleLocator</t>
+  </si>
+  <si>
+    <t>descriptionLocator</t>
+  </si>
+  <si>
+    <t>.app__title</t>
+  </si>
+  <si>
+    <t>titlePage</t>
+  </si>
+  <si>
+    <t>locatorTitlePage</t>
+  </si>
+  <si>
+    <t>Безопасность</t>
   </si>
 </sst>
 </file>
@@ -558,20 +576,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.7109375" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.42578125" bestFit="1" customWidth="1"/>
@@ -583,7 +601,7 @@
     <col min="16" max="16" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -591,126 +609,204 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="D5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="E6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="D7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
@@ -784,21 +880,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.140625" customWidth="1"/>
@@ -810,7 +906,7 @@
     <col min="16" max="16" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -818,99 +914,201 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="D2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="D3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="270" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="D5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="E7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
     </row>
   </sheetData>
@@ -920,27 +1118,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.140625" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" customWidth="1"/>
+    <col min="16" max="16" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -948,108 +1148,201 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="F1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="315" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="D2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="255" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="D3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="C4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P1" t="s">
+      <c r="D4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="285" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="390" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="315" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C5" s="1"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
     </row>
   </sheetData>
